--- a/raw_data/20200818_saline/20200818_Sensor0_Test_94.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_94.xlsx
@@ -1,3545 +1,3961 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B02628-2E2B-4F9A-9C41-5C7FC3CBA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>83702.911648</v>
+        <v>83702.911647999994</v>
       </c>
       <c r="B2" s="1">
         <v>23.250809</v>
       </c>
       <c r="C2" s="1">
-        <v>911.098000</v>
+        <v>911.09799999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.432000</v>
+        <v>-196.43199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>83713.306770</v>
+        <v>83713.306769999996</v>
       </c>
       <c r="G2" s="1">
-        <v>23.253696</v>
+        <v>23.253696000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>927.928000</v>
+        <v>927.928</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.666000</v>
+        <v>-166.666</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>83723.737141</v>
+        <v>83723.737141000005</v>
       </c>
       <c r="L2" s="1">
         <v>23.256594</v>
       </c>
       <c r="M2" s="1">
-        <v>950.175000</v>
+        <v>950.17499999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.838000</v>
+        <v>-119.83799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>83734.031607</v>
+        <v>83734.031606999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.259453</v>
+        <v>23.259453000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>956.917000</v>
+        <v>956.91700000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.601000</v>
+        <v>-104.601</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>83744.352857</v>
+        <v>83744.352857000005</v>
       </c>
       <c r="V2" s="1">
-        <v>23.262320</v>
+        <v>23.262319999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>963.358000</v>
+        <v>963.35799999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.596600</v>
+        <v>-90.596599999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>83754.794635</v>
+        <v>83754.794634999998</v>
       </c>
       <c r="AA2" s="1">
         <v>23.265221</v>
       </c>
       <c r="AB2" s="1">
-        <v>971.005000</v>
+        <v>971.005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.968900</v>
+        <v>-80.968900000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>83765.048964</v>
+        <v>83765.048964000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.268069</v>
+        <v>23.268069000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>976.066000</v>
+        <v>976.06600000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.325300</v>
+        <v>-80.325299999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>83775.162849</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.270879</v>
+        <v>23.270879000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>984.014000</v>
+        <v>984.01400000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.801400</v>
+        <v>-87.801400000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>83785.428548</v>
+        <v>83785.428547999996</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.273730</v>
+        <v>23.27373</v>
       </c>
       <c r="AQ2" s="1">
-        <v>993.202000</v>
+        <v>993.202</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.514000</v>
+        <v>-102.514</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>83796.027062</v>
+        <v>83796.027061999994</v>
       </c>
       <c r="AU2" s="1">
         <v>23.276674</v>
       </c>
       <c r="AV2" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.831000</v>
+        <v>-123.831</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>83807.630967</v>
+        <v>83807.630967000005</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.279897</v>
+        <v>23.279896999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.481000</v>
+        <v>-142.48099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>83818.543613</v>
+        <v>83818.543613000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.282929</v>
+        <v>23.282928999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.015000</v>
+        <v>-227.01499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>83829.512969</v>
+        <v>83829.512969000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.285976</v>
+        <v>23.285976000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1138.930000</v>
+        <v>1138.93</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.371000</v>
+        <v>-362.37099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>83840.904585</v>
+        <v>83840.904584999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.289140</v>
+        <v>23.28914</v>
       </c>
       <c r="BP2" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.637000</v>
+        <v>-570.63699999999994</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>83852.038806</v>
+        <v>83852.038805999997</v>
       </c>
       <c r="BT2" s="1">
         <v>23.292233</v>
       </c>
       <c r="BU2" s="1">
-        <v>1417.600000</v>
+        <v>1417.6</v>
       </c>
       <c r="BV2" s="1">
-        <v>-792.823000</v>
+        <v>-792.82299999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>83863.497387</v>
+        <v>83863.497386999996</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.295416</v>
+        <v>23.295415999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1578.320000</v>
+        <v>1578.32</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1023.730000</v>
+        <v>-1023.73</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>83874.705950</v>
+        <v>83874.705950000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.298529</v>
+        <v>23.298528999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1980.930000</v>
+        <v>1980.93</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1565.590000</v>
+        <v>-1565.59</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>83703.602544</v>
+        <v>83703.602543999994</v>
       </c>
       <c r="B3" s="1">
-        <v>23.251001</v>
+        <v>23.251000999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>910.993000</v>
+        <v>910.99300000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.461000</v>
+        <v>-196.46100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>83713.861299</v>
+        <v>83713.861298999997</v>
       </c>
       <c r="G3" s="1">
-        <v>23.253850</v>
+        <v>23.25385</v>
       </c>
       <c r="H3" s="1">
-        <v>927.822000</v>
+        <v>927.822</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.748000</v>
+        <v>-166.74799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>83724.153793</v>
+        <v>83724.153793000005</v>
       </c>
       <c r="L3" s="1">
-        <v>23.256709</v>
+        <v>23.256709000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>950.330000</v>
+        <v>950.33</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.864000</v>
+        <v>-119.864</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>83734.379813</v>
+        <v>83734.379813000007</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.259550</v>
+        <v>23.259550000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>956.860000</v>
+        <v>956.86</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.574000</v>
+        <v>-104.574</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>83744.690136</v>
+        <v>83744.690136000005</v>
       </c>
       <c r="V3" s="1">
         <v>23.262414</v>
       </c>
       <c r="W3" s="1">
-        <v>963.533000</v>
+        <v>963.53300000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.700700</v>
+        <v>-90.700699999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>83755.174605</v>
+        <v>83755.174604999993</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.265326</v>
+        <v>23.265326000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>970.930000</v>
+        <v>970.93</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.960100</v>
+        <v>-80.960099999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>83765.427909</v>
+        <v>83765.427909000005</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.268174</v>
+        <v>23.268173999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>976.050000</v>
+        <v>976.05</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.351400</v>
+        <v>-80.351399999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>83775.626608</v>
+        <v>83775.626608000006</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.271007</v>
+        <v>23.271007000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>984.049000</v>
+        <v>984.04899999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.801200</v>
+        <v>-87.801199999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>83785.845186</v>
+        <v>83785.845186000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.273846</v>
+        <v>23.273845999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>993.194000</v>
+        <v>993.19399999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.465000</v>
+        <v>-102.465</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>83796.490820</v>
+        <v>83796.490820000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.276803</v>
+        <v>23.276803000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.825000</v>
+        <v>-123.825</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>83807.992053</v>
+        <v>83807.992052999994</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23.279998</v>
+        <v>23.279997999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.506000</v>
+        <v>-142.506</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>83818.910983</v>
+        <v>83818.910982999994</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.283031</v>
+        <v>23.283031000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.011000</v>
+        <v>-227.011</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>83829.890426</v>
+        <v>83829.890425999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.286081</v>
+        <v>23.286080999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1138.920000</v>
+        <v>1138.92</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.390000</v>
+        <v>-362.39</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>83841.331642</v>
+        <v>83841.331642000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.289259</v>
+        <v>23.289259000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.695000</v>
+        <v>-570.69500000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>83852.471333</v>
+        <v>83852.471332999994</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.292353</v>
+        <v>23.292352999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1417.680000</v>
+        <v>1417.68</v>
       </c>
       <c r="BV3" s="1">
-        <v>-792.890000</v>
+        <v>-792.89</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>83863.944780</v>
+        <v>83863.944780000005</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.295540</v>
+        <v>23.295539999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1578.270000</v>
+        <v>1578.27</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1023.770000</v>
+        <v>-1023.77</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>83875.274860</v>
+        <v>83875.274860000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.298687</v>
+        <v>23.298687000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1980.960000</v>
+        <v>1980.96</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1565.100000</v>
+        <v>-1565.1</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>83703.960655</v>
+        <v>83703.960655000003</v>
       </c>
       <c r="B4" s="1">
-        <v>23.251100</v>
+        <v>23.251100000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>911.070000</v>
+        <v>911.07</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.531000</v>
+        <v>-196.53100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>83714.008113</v>
+        <v>83714.008113000004</v>
       </c>
       <c r="G4" s="1">
-        <v>23.253891</v>
+        <v>23.253890999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>927.663000</v>
+        <v>927.66300000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.940000</v>
+        <v>-166.94</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>83724.501482</v>
+        <v>83724.501482000007</v>
       </c>
       <c r="L4" s="1">
-        <v>23.256806</v>
+        <v>23.256806000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>950.272000</v>
+        <v>950.27200000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.929000</v>
+        <v>-119.929</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>83734.728022</v>
+        <v>83734.728021999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.259647</v>
+        <v>23.259647000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>956.878000</v>
+        <v>956.87800000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.541000</v>
+        <v>-104.541</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>83745.035384</v>
+        <v>83745.035384000003</v>
       </c>
       <c r="V4" s="1">
-        <v>23.262510</v>
+        <v>23.262509999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>963.590000</v>
+        <v>963.59</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.720900</v>
+        <v>-90.7209</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>83755.597199</v>
+        <v>83755.597198999996</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.265444</v>
+        <v>23.265443999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>971.053000</v>
+        <v>971.053</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.947500</v>
+        <v>-80.947500000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>83765.877245</v>
+        <v>83765.877244999996</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.268299</v>
+        <v>23.268298999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>976.042000</v>
+        <v>976.04200000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.290900</v>
+        <v>-80.290899999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>83775.928671</v>
+        <v>83775.928671000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.271091</v>
+        <v>23.271090999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>984.049000</v>
+        <v>984.04899999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.802700</v>
+        <v>-87.802700000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>83786.195858</v>
+        <v>83786.195858000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.273943</v>
+        <v>23.273942999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>993.194000</v>
+        <v>993.19399999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.490000</v>
+        <v>-102.49</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>83796.877700</v>
+        <v>83796.877699999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.276910</v>
+        <v>23.276910000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>83808.352644</v>
+        <v>83808.352643999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.280098</v>
+        <v>23.280097999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1014.060000</v>
+        <v>1014.06</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.461000</v>
+        <v>-142.46100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>83819.277527</v>
+        <v>83819.277526999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.283133</v>
+        <v>23.283132999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.005000</v>
+        <v>-227.005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>83830.644346</v>
+        <v>83830.644346000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.286290</v>
+        <v>23.286290000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1138.870000</v>
+        <v>1138.8699999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.392000</v>
+        <v>-362.392</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>83842.348936</v>
+        <v>83842.348935999995</v>
       </c>
       <c r="BO4" s="1">
         <v>23.289541</v>
       </c>
       <c r="BP4" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.689000</v>
+        <v>-570.68899999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>83852.883503</v>
+        <v>83852.883503000005</v>
       </c>
       <c r="BT4" s="1">
         <v>23.292468</v>
       </c>
       <c r="BU4" s="1">
-        <v>1417.620000</v>
+        <v>1417.62</v>
       </c>
       <c r="BV4" s="1">
-        <v>-792.897000</v>
+        <v>-792.89700000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>83864.376762</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.295660</v>
+        <v>23.295660000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1578.280000</v>
+        <v>1578.28</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1023.800000</v>
+        <v>-1023.8</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>83875.797645</v>
+        <v>83875.797644999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.298833</v>
+        <v>23.298832999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1982.210000</v>
+        <v>1982.21</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1565.590000</v>
+        <v>-1565.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>83704.299918</v>
+        <v>83704.299918000004</v>
       </c>
       <c r="B5" s="1">
-        <v>23.251194</v>
+        <v>23.251194000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>910.940000</v>
+        <v>910.94</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.525000</v>
+        <v>-196.52500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>83714.342417</v>
+        <v>83714.342417000007</v>
       </c>
       <c r="G5" s="1">
-        <v>23.253984</v>
+        <v>23.253983999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>927.840000</v>
+        <v>927.84</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.727000</v>
+        <v>-166.727</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>83724.843219</v>
+        <v>83724.843219000002</v>
       </c>
       <c r="L5" s="1">
-        <v>23.256901</v>
+        <v>23.256900999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>950.250000</v>
+        <v>950.25</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.783000</v>
+        <v>-119.783</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>83735.168437</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.259769</v>
+        <v>23.259768999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>956.908000</v>
+        <v>956.90800000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.525000</v>
+        <v>-104.52500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>83745.468360</v>
+        <v>83745.468359999999</v>
       </c>
       <c r="V5" s="1">
-        <v>23.262630</v>
+        <v>23.262630000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>963.556000</v>
+        <v>963.55600000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.717700</v>
+        <v>-90.717699999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>83755.893770</v>
+        <v>83755.893769999995</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.265526</v>
+        <v>23.265526000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>971.029000</v>
+        <v>971.029</v>
       </c>
       <c r="AC5" s="1">
-        <v>-81.009200</v>
+        <v>-81.009200000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>83766.110366</v>
+        <v>83766.110365999994</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.268364</v>
+        <v>23.268363999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>976.034000</v>
+        <v>976.03399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.306600</v>
+        <v>-80.306600000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>83776.273429</v>
+        <v>83776.273428999993</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.271187</v>
+        <v>23.271187000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>984.027000</v>
+        <v>984.02700000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.787600</v>
+        <v>-87.787599999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>83786.553972</v>
+        <v>83786.553971999994</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.274043</v>
+        <v>23.274042999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>993.211000</v>
+        <v>993.21100000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.476000</v>
+        <v>-102.476</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>83797.241267</v>
+        <v>83797.241267000005</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.277011</v>
+        <v>23.277011000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.833000</v>
+        <v>-123.833</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>83809.089205</v>
+        <v>83809.089204999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>23.280303</v>
       </c>
       <c r="BA5" s="1">
-        <v>1014.050000</v>
+        <v>1014.05</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.499000</v>
+        <v>-142.499</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>83819.994742</v>
+        <v>83819.994741999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.283332</v>
+        <v>23.283332000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.999000</v>
+        <v>-226.999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>83831.018364</v>
+        <v>83831.018364000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.286394</v>
+        <v>23.286394000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1138.920000</v>
+        <v>1138.92</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.386000</v>
+        <v>-362.38600000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>83842.820632</v>
+        <v>83842.820632000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.289672</v>
+        <v>23.289671999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.682000</v>
+        <v>-570.68200000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>83853.321929</v>
+        <v>83853.321928999998</v>
       </c>
       <c r="BT5" s="1">
         <v>23.292589</v>
       </c>
       <c r="BU5" s="1">
-        <v>1417.710000</v>
+        <v>1417.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-792.943000</v>
+        <v>-792.94299999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>83865.117817</v>
+        <v>83865.117817000006</v>
       </c>
       <c r="BY5" s="1">
         <v>23.295866</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1578.220000</v>
+        <v>1578.22</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1023.830000</v>
+        <v>-1023.83</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>83876.628474</v>
+        <v>83876.628473999997</v>
       </c>
       <c r="CD5" s="1">
         <v>23.299063</v>
       </c>
       <c r="CE5" s="1">
-        <v>1982.290000</v>
+        <v>1982.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1563.630000</v>
+        <v>-1563.63</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>83704.647119</v>
+        <v>83704.647119000001</v>
       </c>
       <c r="B6" s="1">
-        <v>23.251291</v>
+        <v>23.251290999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>910.995000</v>
+        <v>910.995</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.563000</v>
+        <v>-196.56299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>83714.766498</v>
+        <v>83714.766497999997</v>
       </c>
       <c r="G6" s="1">
         <v>23.254102</v>
       </c>
       <c r="H6" s="1">
-        <v>927.783000</v>
+        <v>927.78300000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.787000</v>
+        <v>-166.78700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>83725.269286</v>
+        <v>83725.269285999995</v>
       </c>
       <c r="L6" s="1">
         <v>23.257019</v>
       </c>
       <c r="M6" s="1">
-        <v>950.181000</v>
+        <v>950.18100000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.821000</v>
+        <v>-119.821</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>83735.436277</v>
+        <v>83735.436277000001</v>
       </c>
       <c r="Q6" s="1">
         <v>23.259843</v>
       </c>
       <c r="R6" s="1">
-        <v>956.942000</v>
+        <v>956.94200000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.487000</v>
+        <v>-104.48699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>83745.753064</v>
+        <v>83745.753064000004</v>
       </c>
       <c r="V6" s="1">
-        <v>23.262709</v>
+        <v>23.262709000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>963.512000</v>
+        <v>963.51199999999994</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.719100</v>
+        <v>-90.719099999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>83756.242489</v>
+        <v>83756.242488999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.265623</v>
+        <v>23.265623000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>970.938000</v>
+        <v>970.93799999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.946200</v>
+        <v>-80.946200000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>83766.462028</v>
+        <v>83766.462027999994</v>
       </c>
       <c r="AF6" s="1">
         <v>23.268462</v>
       </c>
       <c r="AG6" s="1">
-        <v>976.030000</v>
+        <v>976.03</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.327200</v>
+        <v>-80.327200000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>83776.622575</v>
+        <v>83776.622575000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.271284</v>
+        <v>23.271284000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>984.031000</v>
+        <v>984.03099999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.786000</v>
+        <v>-87.786000000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>83787.117921</v>
+        <v>83787.117920999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.274199</v>
+        <v>23.274198999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>993.190000</v>
+        <v>993.19</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.486000</v>
+        <v>-102.486</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>83797.967907</v>
+        <v>83797.967906999998</v>
       </c>
       <c r="AU6" s="1">
         <v>23.277213</v>
       </c>
       <c r="AV6" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>83809.429460</v>
+        <v>83809.429459999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.280397</v>
+        <v>23.280397000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.488000</v>
+        <v>-142.488</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>83820.356325</v>
+        <v>83820.356325000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.283432</v>
+        <v>23.283432000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.024000</v>
+        <v>-227.024</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>83831.392312</v>
+        <v>83831.392311999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.286498</v>
+        <v>23.286498000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1138.900000</v>
+        <v>1138.9000000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.388000</v>
+        <v>-362.38799999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>83842.972408</v>
+        <v>83842.972408000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.289715</v>
+        <v>23.289715000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.671000</v>
+        <v>-570.67100000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>83854.063448</v>
+        <v>83854.063448000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.292795</v>
+        <v>23.292795000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1417.630000</v>
+        <v>1417.63</v>
       </c>
       <c r="BV6" s="1">
-        <v>-792.808000</v>
+        <v>-792.80799999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>83865.247770</v>
+        <v>83865.247770000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.295902</v>
+        <v>23.295902000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1578.170000</v>
+        <v>1578.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1023.770000</v>
+        <v>-1023.77</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>83876.824362</v>
+        <v>83876.824361999999</v>
       </c>
       <c r="CD6" s="1">
         <v>23.299118</v>
       </c>
       <c r="CE6" s="1">
-        <v>1980.880000</v>
+        <v>1980.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1564.100000</v>
+        <v>-1564.1</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>83705.093517</v>
+        <v>83705.093517000001</v>
       </c>
       <c r="B7" s="1">
-        <v>23.251415</v>
+        <v>23.251415000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>910.976000</v>
+        <v>910.976</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.649000</v>
+        <v>-196.649</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>83715.039296</v>
+        <v>83715.039296000003</v>
       </c>
       <c r="G7" s="1">
         <v>23.254178</v>
       </c>
       <c r="H7" s="1">
-        <v>927.966000</v>
+        <v>927.96600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.732000</v>
+        <v>-166.732</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>83725.535140</v>
+        <v>83725.535140000007</v>
       </c>
       <c r="L7" s="1">
-        <v>23.257093</v>
+        <v>23.257093000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>950.177000</v>
+        <v>950.17700000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.787000</v>
+        <v>-119.78700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>83735.787974</v>
+        <v>83735.787974000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.259941</v>
+        <v>23.259941000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>956.931000</v>
+        <v>956.93100000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.508000</v>
+        <v>-104.508</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>83746.091831</v>
+        <v>83746.091830999998</v>
       </c>
       <c r="V7" s="1">
-        <v>23.262803</v>
+        <v>23.262803000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>963.602000</v>
+        <v>963.60199999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.638900</v>
+        <v>-90.638900000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>83756.591145</v>
+        <v>83756.591144999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.265720</v>
+        <v>23.265720000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>971.021000</v>
+        <v>971.02099999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.969200</v>
+        <v>-80.969200000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>83766.806782</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.268557</v>
+        <v>23.268557000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>976.026000</v>
+        <v>976.02599999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.309500</v>
+        <v>-80.3095</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>83777.319951</v>
+        <v>83777.319950999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.271478</v>
+        <v>23.271477999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>984.032000</v>
+        <v>984.03200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.799000</v>
+        <v>-87.799000000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>83787.273169</v>
+        <v>83787.273168999993</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.274243</v>
+        <v>23.274242999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>993.190000</v>
+        <v>993.19</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.475000</v>
+        <v>-102.47499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>83798.360738</v>
+        <v>83798.360738000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.277322</v>
+        <v>23.277322000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.827000</v>
+        <v>-123.827</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>83809.787076</v>
+        <v>83809.787075999993</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.280496</v>
+        <v>23.280495999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.472000</v>
+        <v>-142.47200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>83820.722905</v>
+        <v>83820.722905000002</v>
       </c>
       <c r="BE7" s="1">
         <v>23.283534</v>
       </c>
       <c r="BF7" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.020000</v>
+        <v>-227.02</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>83832.091684</v>
+        <v>83832.091683999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.286692</v>
+        <v>23.286691999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1138.910000</v>
+        <v>1138.9100000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.400000</v>
+        <v>-362.4</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>83843.419302</v>
+        <v>83843.419301999995</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.289839</v>
+        <v>23.289839000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.657000</v>
+        <v>-570.65700000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>83854.193928</v>
+        <v>83854.193927999993</v>
       </c>
       <c r="BT7" s="1">
-        <v>23.292832</v>
+        <v>23.292832000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1417.710000</v>
+        <v>1417.71</v>
       </c>
       <c r="BV7" s="1">
-        <v>-792.897000</v>
+        <v>-792.89700000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>83865.671817</v>
+        <v>83865.671816999995</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.296020</v>
+        <v>23.296019999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1578.380000</v>
+        <v>1578.38</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1023.910000</v>
+        <v>-1023.91</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>83877.334250</v>
+        <v>83877.33425</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.299260</v>
+        <v>23.29926</v>
       </c>
       <c r="CE7" s="1">
-        <v>1980.830000</v>
+        <v>1980.83</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1563.890000</v>
+        <v>-1563.89</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>83705.352461</v>
+        <v>83705.352461000002</v>
       </c>
       <c r="B8" s="1">
-        <v>23.251487</v>
+        <v>23.251487000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>911.002000</v>
+        <v>911.00199999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.388000</v>
+        <v>-196.38800000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>83715.386992</v>
       </c>
       <c r="G8" s="1">
-        <v>23.254274</v>
+        <v>23.254273999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>927.855000</v>
+        <v>927.85500000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.761000</v>
+        <v>-166.761</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>83725.882834</v>
+        <v>83725.882834000004</v>
       </c>
       <c r="L8" s="1">
-        <v>23.257190</v>
+        <v>23.257190000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>950.216000</v>
+        <v>950.21600000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.867000</v>
+        <v>-119.867</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>83736.133191</v>
+        <v>83736.133191000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>23.260037</v>
+        <v>23.260037000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>956.909000</v>
+        <v>956.90899999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.568000</v>
+        <v>-104.568</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>83746.435071</v>
       </c>
       <c r="V8" s="1">
-        <v>23.262899</v>
+        <v>23.262899000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>963.507000</v>
+        <v>963.50699999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.614400</v>
+        <v>-90.614400000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>83757.287528</v>
+        <v>83757.287528000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.265913</v>
+        <v>23.265913000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>970.907000</v>
+        <v>970.90700000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.881500</v>
+        <v>-80.881500000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>83767.491227</v>
+        <v>83767.491227000006</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.268748</v>
+        <v>23.268747999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>976.070000</v>
+        <v>976.07</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.327500</v>
+        <v>-80.327500000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>83777.668142</v>
+        <v>83777.668141999995</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.271574</v>
+        <v>23.271574000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>984.028000</v>
+        <v>984.02800000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.783600</v>
+        <v>-87.783600000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>83787.633762</v>
+        <v>83787.633761999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>23.274343</v>
+        <v>23.274342999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>993.187000</v>
+        <v>993.18700000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.487000</v>
+        <v>-102.48699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>83798.723810</v>
+        <v>83798.723809999996</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.277423</v>
+        <v>23.277422999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>83810.474530</v>
+        <v>83810.474530000007</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.280687</v>
       </c>
       <c r="BA8" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.473000</v>
+        <v>-142.47300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>83821.403381</v>
+        <v>83821.403380999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.283723</v>
+        <v>23.283722999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.010000</v>
+        <v>-227.01</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>83832.516750</v>
+        <v>83832.516749999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.286810</v>
+        <v>23.286809999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1138.940000</v>
+        <v>1138.94</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.365000</v>
+        <v>-362.36500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>83843.789852</v>
+        <v>83843.789852000002</v>
       </c>
       <c r="BO8" s="1">
         <v>23.289942</v>
       </c>
       <c r="BP8" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.667000</v>
+        <v>-570.66700000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>83854.608055</v>
+        <v>83854.608055000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.292947</v>
+        <v>23.292947000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1417.690000</v>
+        <v>1417.69</v>
       </c>
       <c r="BV8" s="1">
-        <v>-792.937000</v>
+        <v>-792.93700000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>83866.093416</v>
+        <v>83866.093416000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.296137</v>
+        <v>23.296137000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1578.320000</v>
+        <v>1578.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1023.770000</v>
+        <v>-1023.77</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>83877.909112</v>
+        <v>83877.909111999994</v>
       </c>
       <c r="CD8" s="1">
         <v>23.299419</v>
       </c>
       <c r="CE8" s="1">
-        <v>1982.420000</v>
+        <v>1982.42</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1564.240000</v>
+        <v>-1564.24</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>83705.695660</v>
+        <v>83705.695659999998</v>
       </c>
       <c r="B9" s="1">
-        <v>23.251582</v>
+        <v>23.251581999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>911.015000</v>
+        <v>911.01499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.431000</v>
+        <v>-196.43100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>83715.730720</v>
+        <v>83715.730720000007</v>
       </c>
       <c r="G9" s="1">
-        <v>23.254370</v>
+        <v>23.254370000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>927.936000</v>
+        <v>927.93600000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.706000</v>
+        <v>-166.70599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>83726.226065</v>
+        <v>83726.226064999995</v>
       </c>
       <c r="L9" s="1">
         <v>23.257285</v>
       </c>
       <c r="M9" s="1">
-        <v>950.294000</v>
+        <v>950.29399999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.898000</v>
+        <v>-119.898</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>83736.825572</v>
+        <v>83736.825572000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.260229</v>
+        <v>23.260228999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>956.876000</v>
+        <v>956.87599999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.572000</v>
+        <v>-104.572</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>83747.122021</v>
+        <v>83747.122021000003</v>
       </c>
       <c r="V9" s="1">
-        <v>23.263089</v>
+        <v>23.263089000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>963.503000</v>
+        <v>963.50300000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.652900</v>
+        <v>-90.652900000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>83757.636257</v>
+        <v>83757.636257000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.266010</v>
+        <v>23.266010000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>971.041000</v>
+        <v>971.04100000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-81.010900</v>
+        <v>-81.010900000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>83767.833466</v>
+        <v>83767.833465999996</v>
       </c>
       <c r="AF9" s="1">
         <v>23.268843</v>
       </c>
       <c r="AG9" s="1">
-        <v>976.102000</v>
+        <v>976.10199999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.298000</v>
+        <v>-80.298000000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>83778.017821</v>
+        <v>83778.017821000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.271672</v>
+        <v>23.271671999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>984.030000</v>
+        <v>984.03</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.776000</v>
+        <v>-87.775999999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>83788.303359</v>
+        <v>83788.303358999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.274529</v>
+        <v>23.274529000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>993.210000</v>
+        <v>993.21</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.476000</v>
+        <v>-102.476</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>83799.411992</v>
+        <v>83799.411991999994</v>
       </c>
       <c r="AU9" s="1">
         <v>23.277614</v>
       </c>
       <c r="AV9" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.835000</v>
+        <v>-123.83499999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>83810.890705</v>
+        <v>83810.890704999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.280803</v>
+        <v>23.280802999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.471000</v>
+        <v>-142.471</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>83821.826468</v>
+        <v>83821.826467999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.283841</v>
+        <v>23.283840999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.027000</v>
+        <v>-227.02699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>83832.894229</v>
+        <v>83832.894228999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>23.286915</v>
       </c>
       <c r="BK9" s="1">
-        <v>1138.930000</v>
+        <v>1138.93</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.383000</v>
+        <v>-362.38299999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>83844.185654</v>
+        <v>83844.185654000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.290052</v>
+        <v>23.290051999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.710000</v>
+        <v>-570.71</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>83855.035608</v>
+        <v>83855.035608000006</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.293065</v>
+        <v>23.293064999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1417.580000</v>
+        <v>1417.58</v>
       </c>
       <c r="BV9" s="1">
-        <v>-792.922000</v>
+        <v>-792.92200000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>83866.535880</v>
+        <v>83866.535879999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.296260</v>
+        <v>23.29626</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1578.210000</v>
+        <v>1578.21</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1023.710000</v>
+        <v>-1023.71</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>83878.427438</v>
+        <v>83878.427437999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.299563</v>
+        <v>23.299562999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1980.610000</v>
+        <v>1980.61</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1563.800000</v>
+        <v>-1563.8</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>83706.039389</v>
+        <v>83706.039388999998</v>
       </c>
       <c r="B10" s="1">
-        <v>23.251678</v>
+        <v>23.251677999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>910.999000</v>
+        <v>910.99900000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.490000</v>
+        <v>-196.49</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>83716.427638</v>
+        <v>83716.427637999994</v>
       </c>
       <c r="G10" s="1">
-        <v>23.254563</v>
+        <v>23.254563000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>927.717000</v>
+        <v>927.71699999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.811000</v>
+        <v>-166.81100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>83726.922488</v>
+        <v>83726.922487999997</v>
       </c>
       <c r="L10" s="1">
-        <v>23.257478</v>
+        <v>23.257477999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>950.212000</v>
+        <v>950.21199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.006000</v>
+        <v>-120.006</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>83737.178226</v>
+        <v>83737.178226000004</v>
       </c>
       <c r="Q10" s="1">
         <v>23.260327</v>
       </c>
       <c r="R10" s="1">
-        <v>956.889000</v>
+        <v>956.88900000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.555000</v>
+        <v>-104.55500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>83747.465749</v>
+        <v>83747.465748999995</v>
       </c>
       <c r="V10" s="1">
         <v>23.263185</v>
       </c>
       <c r="W10" s="1">
-        <v>963.522000</v>
+        <v>963.52200000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.749600</v>
+        <v>-90.749600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>83757.986391</v>
+        <v>83757.986390999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.266107</v>
+        <v>23.266107000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>970.953000</v>
+        <v>970.95299999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-81.030200</v>
+        <v>-81.030199999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>83768.185660</v>
+        <v>83768.185660000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.268940</v>
+        <v>23.268940000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>976.063000</v>
+        <v>976.06299999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.317500</v>
+        <v>-80.317499999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>83778.679994</v>
+        <v>83778.679994000006</v>
       </c>
       <c r="AK10" s="1">
         <v>23.271856</v>
       </c>
       <c r="AL10" s="1">
-        <v>984.035000</v>
+        <v>984.03499999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.796700</v>
+        <v>-87.796700000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>83788.711071</v>
+        <v>83788.711070999998</v>
       </c>
       <c r="AP10" s="1">
         <v>23.274642</v>
       </c>
       <c r="AQ10" s="1">
-        <v>993.193000</v>
+        <v>993.19299999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.475000</v>
+        <v>-102.47499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>83799.850764</v>
+        <v>83799.850764000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.277736</v>
+        <v>23.277736000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>83811.268662</v>
+        <v>83811.268662000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>23.280908</v>
       </c>
       <c r="BA10" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.479000</v>
+        <v>-142.47900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>83822.187099</v>
+        <v>83822.187099000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.283941</v>
+        <v>23.283940999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.004000</v>
+        <v>-227.00399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>83833.271171</v>
       </c>
       <c r="BJ10" s="1">
-        <v>23.287020</v>
+        <v>23.287019999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1138.920000</v>
+        <v>1138.92</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.364000</v>
+        <v>-362.36399999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>83844.617673</v>
+        <v>83844.617673000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.290172</v>
+        <v>23.290171999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.664000</v>
+        <v>-570.66399999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>83855.455719</v>
+        <v>83855.455719000005</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.293182</v>
+        <v>23.293182000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1417.650000</v>
+        <v>1417.65</v>
       </c>
       <c r="BV10" s="1">
-        <v>-793.017000</v>
+        <v>-793.01700000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>83866.958439</v>
+        <v>83866.958438999995</v>
       </c>
       <c r="BY10" s="1">
         <v>23.296377</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1578.240000</v>
+        <v>1578.24</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1023.920000</v>
+        <v>-1023.92</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>83878.953191</v>
+        <v>83878.953190999993</v>
       </c>
       <c r="CD10" s="1">
         <v>23.299709</v>
       </c>
       <c r="CE10" s="1">
-        <v>1980.840000</v>
+        <v>1980.84</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1565.340000</v>
+        <v>-1565.34</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>83706.710475</v>
       </c>
       <c r="B11" s="1">
-        <v>23.251864</v>
+        <v>23.251864000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>911.134000</v>
+        <v>911.13400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.540000</v>
+        <v>-196.54</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>83716.778798</v>
+        <v>83716.778797999999</v>
       </c>
       <c r="G11" s="1">
-        <v>23.254661</v>
+        <v>23.254660999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>927.720000</v>
+        <v>927.72</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.816000</v>
+        <v>-166.816</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>83727.272661</v>
+        <v>83727.272660999995</v>
       </c>
       <c r="L11" s="1">
         <v>23.257576</v>
       </c>
       <c r="M11" s="1">
-        <v>950.216000</v>
+        <v>950.21600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.798000</v>
+        <v>-119.798</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>83737.529396</v>
+        <v>83737.529395999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.260425</v>
+        <v>23.260425000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>956.903000</v>
+        <v>956.90300000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.486000</v>
+        <v>-104.486</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>83747.809478</v>
+        <v>83747.809477999996</v>
       </c>
       <c r="V11" s="1">
-        <v>23.263280</v>
+        <v>23.263280000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>963.564000</v>
+        <v>963.56399999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.611400</v>
+        <v>-90.611400000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>83758.644583</v>
+        <v>83758.644583000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.266290</v>
+        <v>23.266290000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>970.906000</v>
+        <v>970.90599999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-81.009300</v>
+        <v>-81.009299999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>83768.924665</v>
+        <v>83768.924664999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.269146</v>
+        <v>23.269145999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>976.061000</v>
+        <v>976.06100000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.263800</v>
+        <v>-80.263800000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>83779.062432</v>
+        <v>83779.062432000006</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.271962</v>
+        <v>23.271961999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>984.051000</v>
+        <v>984.05100000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.812900</v>
+        <v>-87.812899999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>83789.097454</v>
+        <v>83789.097454000002</v>
       </c>
       <c r="AP11" s="1">
         <v>23.274749</v>
       </c>
       <c r="AQ11" s="1">
-        <v>993.224000</v>
+        <v>993.22400000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.471000</v>
+        <v>-102.471</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>83800.217280</v>
+        <v>83800.217279999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.277838</v>
+        <v>23.277837999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.823000</v>
+        <v>-123.82299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>83811.627233</v>
+        <v>83811.627233000007</v>
       </c>
       <c r="AZ11" s="1">
         <v>23.281008</v>
       </c>
       <c r="BA11" s="1">
-        <v>1014.060000</v>
+        <v>1014.06</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.477000</v>
+        <v>-142.477</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>83822.548147</v>
+        <v>83822.548146999994</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.284041</v>
+        <v>23.284040999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.012000</v>
+        <v>-227.012</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>83833.725492</v>
+        <v>83833.725491999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>23.287146</v>
       </c>
       <c r="BK11" s="1">
-        <v>1138.910000</v>
+        <v>1138.9100000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.391000</v>
+        <v>-362.39100000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>83845.006996</v>
+        <v>83845.006995999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.290280</v>
+        <v>23.290279999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.699000</v>
+        <v>-570.69899999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>83855.863962</v>
+        <v>83855.863962000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.293296</v>
+        <v>23.293296000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1417.590000</v>
+        <v>1417.59</v>
       </c>
       <c r="BV11" s="1">
-        <v>-792.955000</v>
+        <v>-792.95500000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>83867.382022</v>
+        <v>83867.382022000005</v>
       </c>
       <c r="BY11" s="1">
         <v>23.296495</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1578.230000</v>
+        <v>1578.23</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1023.910000</v>
+        <v>-1023.91</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>83879.465560</v>
+        <v>83879.465559999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.299852</v>
+        <v>23.299852000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1982.210000</v>
+        <v>1982.21</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1565.500000</v>
+        <v>-1565.5</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>83707.060688</v>
+        <v>83707.060687999998</v>
       </c>
       <c r="B12" s="1">
-        <v>23.251961</v>
+        <v>23.251961000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>911.041000</v>
+        <v>911.04100000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.454000</v>
+        <v>-196.45400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>83717.126008</v>
+        <v>83717.126008000007</v>
       </c>
       <c r="G12" s="1">
-        <v>23.254757</v>
+        <v>23.254757000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>927.822000</v>
+        <v>927.822</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.926000</v>
+        <v>-166.92599999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>83727.615855</v>
+        <v>83727.615854999996</v>
       </c>
       <c r="L12" s="1">
-        <v>23.257671</v>
+        <v>23.257670999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>950.312000</v>
+        <v>950.31200000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.782000</v>
+        <v>-119.782</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>83738.195532</v>
+        <v>83738.195531999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.260610</v>
+        <v>23.26061</v>
       </c>
       <c r="R12" s="1">
-        <v>956.960000</v>
+        <v>956.96</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.498000</v>
+        <v>-104.498</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>83748.523221</v>
+        <v>83748.523220999996</v>
       </c>
       <c r="V12" s="1">
         <v>23.263479</v>
       </c>
       <c r="W12" s="1">
-        <v>963.444000</v>
+        <v>963.44399999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.726800</v>
+        <v>-90.726799999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>83759.029481</v>
+        <v>83759.029481000005</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.266397</v>
+        <v>23.266397000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>970.930000</v>
+        <v>970.93</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.988600</v>
+        <v>-80.988600000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>83769.215854</v>
+        <v>83769.215853999995</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.269227</v>
+        <v>23.269227000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>976.053000</v>
+        <v>976.053</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.281200</v>
+        <v>-80.281199999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>83779.411580</v>
+        <v>83779.41158</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.272059</v>
+        <v>23.272058999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>984.024000</v>
+        <v>984.024</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.760500</v>
+        <v>-87.760499999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>83789.476398</v>
+        <v>83789.476397999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.274855</v>
+        <v>23.274854999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>993.189000</v>
+        <v>993.18899999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.493000</v>
+        <v>-102.49299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>83800.580336</v>
+        <v>83800.580335999999</v>
       </c>
       <c r="AU12" s="1">
         <v>23.277939</v>
       </c>
       <c r="AV12" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.831000</v>
+        <v>-123.831</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>83812.063217</v>
+        <v>83812.063217000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>23.281129</v>
       </c>
       <c r="BA12" s="1">
-        <v>1014.060000</v>
+        <v>1014.06</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.472000</v>
+        <v>-142.47200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>83823.006482</v>
+        <v>83823.006481999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>23.284168</v>
+        <v>23.284168000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.030000</v>
+        <v>-227.03</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>83834.051860</v>
+        <v>83834.051860000007</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.287237</v>
+        <v>23.287237000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1138.900000</v>
+        <v>1138.9000000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.382000</v>
+        <v>-362.38200000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>83845.426115</v>
+        <v>83845.426114999995</v>
       </c>
       <c r="BO12" s="1">
-        <v>23.290396</v>
+        <v>23.290396000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.693000</v>
+        <v>-570.69299999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>83856.278085</v>
+        <v>83856.278084999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.293411</v>
+        <v>23.293410999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1417.620000</v>
+        <v>1417.62</v>
       </c>
       <c r="BV12" s="1">
-        <v>-792.978000</v>
+        <v>-792.97799999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>83867.829414</v>
+        <v>83867.829414000007</v>
       </c>
       <c r="BY12" s="1">
         <v>23.296619</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1578.210000</v>
+        <v>1578.21</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1023.870000</v>
+        <v>-1023.87</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>83880.337526</v>
+        <v>83880.337526000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.300094</v>
+        <v>23.300094000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1981.970000</v>
+        <v>1981.97</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1564.040000</v>
+        <v>-1564.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>83707.405867</v>
+        <v>83707.405866999994</v>
       </c>
       <c r="B13" s="1">
-        <v>23.252057</v>
+        <v>23.252057000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>910.808000</v>
+        <v>910.80799999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.501000</v>
+        <v>-196.501</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>83717.788663</v>
+        <v>83717.788662999999</v>
       </c>
       <c r="G13" s="1">
-        <v>23.254941</v>
+        <v>23.254940999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>927.989000</v>
+        <v>927.98900000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.759000</v>
+        <v>-166.75899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>83728.282478</v>
+        <v>83728.282477999994</v>
       </c>
       <c r="L13" s="1">
         <v>23.257856</v>
       </c>
       <c r="M13" s="1">
-        <v>950.222000</v>
+        <v>950.22199999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.858000</v>
+        <v>-119.858</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>83738.575458</v>
+        <v>83738.575458000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.260715</v>
+        <v>23.260715000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>956.931000</v>
+        <v>956.93100000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.581000</v>
+        <v>-104.581</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>83748.851571</v>
+        <v>83748.851571000007</v>
       </c>
       <c r="V13" s="1">
-        <v>23.263570</v>
+        <v>23.263570000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>963.456000</v>
+        <v>963.45600000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.743200</v>
+        <v>-90.743200000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>83759.379159</v>
+        <v>83759.379159000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.266494</v>
+        <v>23.266494000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>970.974000</v>
+        <v>970.97400000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-81.003500</v>
+        <v>-81.003500000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>83769.556568</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.269321</v>
+        <v>23.269321000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>976.035000</v>
+        <v>976.03499999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.318600</v>
+        <v>-80.318600000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>83779.758779</v>
+        <v>83779.758778999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.272155</v>
+        <v>23.272155000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>984.039000</v>
+        <v>984.03899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.790300</v>
+        <v>-87.790300000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>83789.896013</v>
+        <v>83789.896013000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.274971</v>
+        <v>23.274971000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>993.195000</v>
+        <v>993.19500000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.472000</v>
+        <v>-102.47199999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>83801.007886</v>
+        <v>83801.007886000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.278058</v>
+        <v>23.278058000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.849000</v>
+        <v>-123.849</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>83812.345936</v>
+        <v>83812.345935999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.281207</v>
+        <v>23.281206999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.485000</v>
+        <v>-142.48500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>83823.271313</v>
+        <v>83823.271313000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.284242</v>
+        <v>23.284241999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.020000</v>
+        <v>-227.02</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>83834.428322</v>
+        <v>83834.428322000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.287341</v>
+        <v>23.287341000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1138.930000</v>
+        <v>1138.93</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.397000</v>
+        <v>-362.39699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>83845.825893</v>
+        <v>83845.825893000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.290507</v>
+        <v>23.290507000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.697000</v>
+        <v>-570.697</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>83856.692245</v>
+        <v>83856.692244999998</v>
       </c>
       <c r="BT13" s="1">
         <v>23.293526</v>
       </c>
       <c r="BU13" s="1">
-        <v>1417.620000</v>
+        <v>1417.62</v>
       </c>
       <c r="BV13" s="1">
-        <v>-792.887000</v>
+        <v>-792.88699999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>83868.258951</v>
+        <v>83868.258950999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.296739</v>
+        <v>23.296738999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1578.200000</v>
+        <v>1578.2</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1023.810000</v>
+        <v>-1023.81</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>83880.506167</v>
@@ -3548,150 +3964,150 @@
         <v>23.300141</v>
       </c>
       <c r="CE13" s="1">
-        <v>1981.060000</v>
+        <v>1981.06</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1564.200000</v>
+        <v>-1564.2</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>83708.063563</v>
+        <v>83708.063563000003</v>
       </c>
       <c r="B14" s="1">
-        <v>23.252240</v>
+        <v>23.25224</v>
       </c>
       <c r="C14" s="1">
-        <v>911.047000</v>
+        <v>911.04700000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.540000</v>
+        <v>-196.54</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>83718.160620</v>
+        <v>83718.160619999995</v>
       </c>
       <c r="G14" s="1">
-        <v>23.255045</v>
+        <v>23.255044999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>927.972000</v>
+        <v>927.97199999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.578000</v>
+        <v>-166.578</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>83728.654478</v>
+        <v>83728.654477999997</v>
       </c>
       <c r="L14" s="1">
-        <v>23.257960</v>
+        <v>23.257960000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>950.225000</v>
+        <v>950.22500000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.829000</v>
+        <v>-119.82899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>83738.922202</v>
+        <v>83738.922202000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.260812</v>
+        <v>23.260812000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>956.882000</v>
+        <v>956.88199999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.563000</v>
+        <v>-104.563</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>83749.198771</v>
+        <v>83749.198770999996</v>
       </c>
       <c r="V14" s="1">
-        <v>23.263666</v>
+        <v>23.263666000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>963.506000</v>
+        <v>963.50599999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.710800</v>
+        <v>-90.710800000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>83759.731317</v>
+        <v>83759.731316999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.266592</v>
+        <v>23.266591999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>971.053000</v>
+        <v>971.053</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.908400</v>
+        <v>-80.9084</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>83770.023306</v>
+        <v>83770.023306000003</v>
       </c>
       <c r="AF14" s="1">
         <v>23.269451</v>
       </c>
       <c r="AG14" s="1">
-        <v>976.066000</v>
+        <v>976.06600000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.329600</v>
+        <v>-80.329599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>83780.179387</v>
+        <v>83780.179386999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.272272</v>
+        <v>23.272272000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>984.017000</v>
+        <v>984.01700000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.791500</v>
+        <v>-87.791499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>83790.195101</v>
+        <v>83790.195101000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.275054</v>
+        <v>23.275054000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>993.192000</v>
+        <v>993.19200000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.496000</v>
+        <v>-102.496</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>83801.313423</v>
@@ -3700,602 +4116,602 @@
         <v>23.278143</v>
       </c>
       <c r="AV14" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>83812.709007</v>
+        <v>83812.709006999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.281308</v>
+        <v>23.281307999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1014.060000</v>
+        <v>1014.06</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.486000</v>
+        <v>-142.48599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>83823.633394</v>
+        <v>83823.633394000004</v>
       </c>
       <c r="BE14" s="1">
         <v>23.284343</v>
       </c>
       <c r="BF14" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.017000</v>
+        <v>-227.017</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>83834.802839</v>
+        <v>83834.802838999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.287445</v>
+        <v>23.287445000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1138.910000</v>
+        <v>1138.9100000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.398000</v>
+        <v>-362.39800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>83846.251460</v>
+        <v>83846.251459999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.290625</v>
+        <v>23.290624999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.692000</v>
+        <v>-570.69200000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>83857.125253</v>
+        <v>83857.125253000006</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.293646</v>
+        <v>23.293645999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1417.570000</v>
+        <v>1417.57</v>
       </c>
       <c r="BV14" s="1">
-        <v>-792.990000</v>
+        <v>-792.99</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>83868.683557</v>
+        <v>83868.683556999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.296857</v>
+        <v>23.296856999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1023.850000</v>
+        <v>-1023.85</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>83881.022501</v>
+        <v>83881.022500999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.300284</v>
+        <v>23.300284000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1980.750000</v>
+        <v>1980.75</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1564.130000</v>
+        <v>-1564.13</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>83708.428121</v>
+        <v>83708.428121000004</v>
       </c>
       <c r="B15" s="1">
-        <v>23.252341</v>
+        <v>23.252341000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>911.019000</v>
+        <v>911.01900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.359000</v>
+        <v>-196.35900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>83718.503356</v>
+        <v>83718.503356000001</v>
       </c>
       <c r="G15" s="1">
-        <v>23.255140</v>
+        <v>23.255140000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>927.846000</v>
+        <v>927.846</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.888000</v>
+        <v>-166.88800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>83729.000191</v>
+        <v>83729.000190999999</v>
       </c>
       <c r="L15" s="1">
         <v>23.258056</v>
       </c>
       <c r="M15" s="1">
-        <v>950.317000</v>
+        <v>950.31700000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.772000</v>
+        <v>-119.77200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>83739.274320</v>
+        <v>83739.274319999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.260910</v>
+        <v>23.260909999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>956.850000</v>
+        <v>956.85</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.500000</v>
+        <v>-104.5</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>83749.669970</v>
+        <v>83749.669970000003</v>
       </c>
       <c r="V15" s="1">
         <v>23.263797</v>
       </c>
       <c r="W15" s="1">
-        <v>963.566000</v>
+        <v>963.56600000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.725900</v>
+        <v>-90.725899999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>83760.168788</v>
+        <v>83760.168787999995</v>
       </c>
       <c r="AA15" s="1">
         <v>23.266714</v>
       </c>
       <c r="AB15" s="1">
-        <v>970.938000</v>
+        <v>970.93799999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.963600</v>
+        <v>-80.9636</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>83770.256424</v>
+        <v>83770.256424000007</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.269516</v>
+        <v>23.269515999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>976.058000</v>
+        <v>976.05799999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.337700</v>
+        <v>-80.337699999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>83780.469049</v>
+        <v>83780.469049000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.272353</v>
+        <v>23.272352999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>984.017000</v>
+        <v>984.01700000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.770800</v>
+        <v>-87.770799999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>83790.559660</v>
+        <v>83790.559659999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.275155</v>
+        <v>23.275155000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>993.224000</v>
+        <v>993.22400000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.466000</v>
+        <v>-102.46599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>83801.675502</v>
+        <v>83801.675501999998</v>
       </c>
       <c r="AU15" s="1">
         <v>23.278243</v>
       </c>
       <c r="AV15" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>83813.068110</v>
+        <v>83813.068109999993</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.281408</v>
+        <v>23.281407999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.474000</v>
+        <v>-142.47399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>83823.998448</v>
+        <v>83823.998447999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>23.284444</v>
+        <v>23.284444000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.003000</v>
+        <v>-227.00299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>83835.549777</v>
+        <v>83835.549776999993</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.287653</v>
+        <v>23.287652999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1138.920000</v>
+        <v>1138.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.394000</v>
+        <v>-362.39400000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>83846.643299</v>
+        <v>83846.643299000003</v>
       </c>
       <c r="BO15" s="1">
         <v>23.290734</v>
       </c>
       <c r="BP15" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.715000</v>
+        <v>-570.71500000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>83857.539908</v>
+        <v>83857.539908000006</v>
       </c>
       <c r="BT15" s="1">
         <v>23.293761</v>
       </c>
       <c r="BU15" s="1">
-        <v>1417.520000</v>
+        <v>1417.52</v>
       </c>
       <c r="BV15" s="1">
-        <v>-792.970000</v>
+        <v>-792.97</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>83869.105630</v>
+        <v>83869.105630000005</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.296974</v>
+        <v>23.296973999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1023.840000</v>
+        <v>-1023.84</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>83881.880618</v>
+        <v>83881.880617999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.300522</v>
+        <v>23.300522000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1982.300000</v>
+        <v>1982.3</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1564.030000</v>
+        <v>-1564.03</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>83708.774366</v>
+        <v>83708.774365999998</v>
       </c>
       <c r="B16" s="1">
         <v>23.252437</v>
       </c>
       <c r="C16" s="1">
-        <v>911.017000</v>
+        <v>911.01700000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.526000</v>
+        <v>-196.52600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>83718.849563</v>
+        <v>83718.849562999996</v>
       </c>
       <c r="G16" s="1">
         <v>23.255236</v>
       </c>
       <c r="H16" s="1">
-        <v>927.902000</v>
+        <v>927.90200000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.662000</v>
+        <v>-166.66200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>83729.346892</v>
+        <v>83729.346892000001</v>
       </c>
       <c r="L16" s="1">
-        <v>23.258152</v>
+        <v>23.258151999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>950.253000</v>
+        <v>950.25300000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.922000</v>
+        <v>-119.922</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>83739.721215</v>
+        <v>83739.721214999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.261034</v>
+        <v>23.261033999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>956.839000</v>
+        <v>956.83900000000006</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.530000</v>
+        <v>-104.53</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>83750.230947</v>
+        <v>83750.230947000004</v>
       </c>
       <c r="V16" s="1">
-        <v>23.263953</v>
+        <v>23.263953000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>963.542000</v>
+        <v>963.54200000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.655900</v>
+        <v>-90.655900000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>83760.434677</v>
+        <v>83760.434676999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.266787</v>
+        <v>23.266787000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>971.106000</v>
+        <v>971.10599999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-81.024300</v>
+        <v>-81.024299999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>83770.600152</v>
+        <v>83770.600151999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.269611</v>
+        <v>23.269611000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>976.056000</v>
+        <v>976.05600000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.320400</v>
+        <v>-80.320400000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>83780.814768</v>
+        <v>83780.814767999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.272449</v>
+        <v>23.272449000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>984.031000</v>
+        <v>984.03099999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.788600</v>
+        <v>-87.788600000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>83790.926209</v>
+        <v>83790.926208999997</v>
       </c>
       <c r="AP16" s="1">
         <v>23.275257</v>
       </c>
       <c r="AQ16" s="1">
-        <v>993.217000</v>
+        <v>993.21699999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.489000</v>
+        <v>-102.489</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>83802.046285</v>
+        <v>83802.046285000004</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.278346</v>
+        <v>23.278345999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.833000</v>
+        <v>-123.833</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>83813.782845</v>
+        <v>83813.782844999994</v>
       </c>
       <c r="AZ16" s="1">
         <v>23.281606</v>
       </c>
       <c r="BA16" s="1">
-        <v>1014.060000</v>
+        <v>1014.06</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.471000</v>
+        <v>-142.471</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>83824.719135</v>
+        <v>83824.719135000007</v>
       </c>
       <c r="BE16" s="1">
         <v>23.284644</v>
       </c>
       <c r="BF16" s="1">
-        <v>1059.280000</v>
+        <v>1059.28</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.038000</v>
+        <v>-227.03800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>83835.923264</v>
+        <v>83835.923263999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.287756</v>
+        <v>23.287756000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1138.910000</v>
+        <v>1138.9100000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.403000</v>
+        <v>-362.40300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>83847.064934</v>
+        <v>83847.064933999995</v>
       </c>
       <c r="BO16" s="1">
         <v>23.290851</v>
       </c>
       <c r="BP16" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.701000</v>
+        <v>-570.70100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>83857.971924</v>
+        <v>83857.971923999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.293881</v>
+        <v>23.293880999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1417.500000</v>
+        <v>1417.5</v>
       </c>
       <c r="BV16" s="1">
-        <v>-793.011000</v>
+        <v>-793.01099999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>83869.846179</v>
@@ -4304,2600 +4720,2601 @@
         <v>23.297179</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1023.790000</v>
+        <v>-1023.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>83882.103285</v>
+        <v>83882.103285000005</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.300584</v>
+        <v>23.300584000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.780000</v>
+        <v>1980.78</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1564.450000</v>
+        <v>-1564.45</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>83709.116072</v>
+        <v>83709.116072000004</v>
       </c>
       <c r="B17" s="1">
-        <v>23.252532</v>
+        <v>23.252531999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>911.089000</v>
+        <v>911.08900000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.498000</v>
+        <v>-196.49799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>83719.269009</v>
+        <v>83719.269008999996</v>
       </c>
       <c r="G17" s="1">
-        <v>23.255353</v>
+        <v>23.255352999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>927.919000</v>
+        <v>927.91899999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.907000</v>
+        <v>-166.90700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>83729.785357</v>
+        <v>83729.785357000001</v>
       </c>
       <c r="L17" s="1">
         <v>23.258274</v>
       </c>
       <c r="M17" s="1">
-        <v>950.189000</v>
+        <v>950.18899999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.907000</v>
+        <v>-119.907</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>83739.974671</v>
+        <v>83739.974671000004</v>
       </c>
       <c r="Q17" s="1">
         <v>23.261104</v>
       </c>
       <c r="R17" s="1">
-        <v>956.934000</v>
+        <v>956.93399999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.503000</v>
+        <v>-104.503</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>83750.579634</v>
+        <v>83750.579633999994</v>
       </c>
       <c r="V17" s="1">
-        <v>23.264050</v>
+        <v>23.264050000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>963.444000</v>
+        <v>963.44399999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.744300</v>
+        <v>-90.744299999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>83760.784829</v>
+        <v>83760.784828999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.266885</v>
+        <v>23.266884999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>971.011000</v>
+        <v>971.01099999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.968000</v>
+        <v>-80.968000000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>83770.943915</v>
+        <v>83770.943914999996</v>
       </c>
       <c r="AF17" s="1">
         <v>23.269707</v>
       </c>
       <c r="AG17" s="1">
-        <v>976.027000</v>
+        <v>976.02700000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.340600</v>
+        <v>-80.340599999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>83781.162457</v>
+        <v>83781.162456999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.272545</v>
+        <v>23.272545000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>984.020000</v>
+        <v>984.02</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.786400</v>
+        <v>-87.7864</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>83791.639953</v>
+        <v>83791.639953000005</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.275456</v>
+        <v>23.275455999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>993.209000</v>
+        <v>993.20899999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.482000</v>
+        <v>-102.482</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>83802.767234</v>
+        <v>83802.767233999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.278546</v>
+        <v>23.278545999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>83814.138479</v>
+        <v>83814.138479000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.281705</v>
+        <v>23.281704999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.472000</v>
+        <v>-142.47200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>83825.081215</v>
+        <v>83825.081214999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.284745</v>
+        <v>23.284745000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1059.250000</v>
+        <v>1059.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.976000</v>
+        <v>-226.976</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>83836.305184</v>
+        <v>83836.305183999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.287863</v>
+        <v>23.287863000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1138.930000</v>
+        <v>1138.93</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.376000</v>
+        <v>-362.37599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>83847.779666</v>
+        <v>83847.779666000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.291050</v>
+        <v>23.291049999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.702000</v>
+        <v>-570.702</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>83858.702076</v>
+        <v>83858.702076000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.294084</v>
+        <v>23.294084000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1417.470000</v>
+        <v>1417.47</v>
       </c>
       <c r="BV17" s="1">
-        <v>-792.901000</v>
+        <v>-792.90099999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>83869.970644</v>
+        <v>83869.970644000001</v>
       </c>
       <c r="BY17" s="1">
         <v>23.297214</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1578.260000</v>
+        <v>1578.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1023.820000</v>
+        <v>-1023.82</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>83882.622594</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.300728</v>
+        <v>23.300727999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1981.400000</v>
+        <v>1981.4</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1565.470000</v>
+        <v>-1565.47</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>83709.546633</v>
+        <v>83709.546633000005</v>
       </c>
       <c r="B18" s="1">
-        <v>23.252652</v>
+        <v>23.252652000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>911.041000</v>
+        <v>911.04100000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.498000</v>
+        <v>-196.49799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>83719.558843</v>
+        <v>83719.558843000006</v>
       </c>
       <c r="G18" s="1">
         <v>23.255433</v>
       </c>
       <c r="H18" s="1">
-        <v>927.982000</v>
+        <v>927.98199999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.796000</v>
+        <v>-166.79599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>83730.049228</v>
+        <v>83730.049228000003</v>
       </c>
       <c r="L18" s="1">
-        <v>23.258347</v>
+        <v>23.258347000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>950.071000</v>
+        <v>950.07100000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.004000</v>
+        <v>-120.004</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>83740.327855</v>
+        <v>83740.327854999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.261202</v>
+        <v>23.261202000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>956.946000</v>
+        <v>956.94600000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.517000</v>
+        <v>-104.517</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>83750.918400</v>
+        <v>83750.918399999995</v>
       </c>
       <c r="V18" s="1">
-        <v>23.264144</v>
+        <v>23.264144000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>963.461000</v>
+        <v>963.46100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.511500</v>
+        <v>-90.511499999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>83761.131523</v>
+        <v>83761.131523000004</v>
       </c>
       <c r="AA18" s="1">
-        <v>23.266981</v>
+        <v>23.266981000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>971.001000</v>
+        <v>971.00099999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.998400</v>
+        <v>-80.998400000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>83771.633317</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.269898</v>
+        <v>23.269898000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>976.047000</v>
+        <v>976.04700000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.367100</v>
+        <v>-80.367099999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>83781.864296</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.272740</v>
+        <v>23.272739999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>984.017000</v>
+        <v>984.01700000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.786500</v>
+        <v>-87.786500000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>83792.002027</v>
+        <v>83792.002026999995</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.275556</v>
+        <v>23.275556000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>993.202000</v>
+        <v>993.202</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.489000</v>
+        <v>-102.489</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>83803.165483</v>
+        <v>83803.165483000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.278657</v>
+        <v>23.278656999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.833000</v>
+        <v>-123.833</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>83814.503565</v>
+        <v>83814.503565000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.281807</v>
+        <v>23.281807000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.497000</v>
+        <v>-142.49700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>83825.769198</v>
+        <v>83825.769197999995</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.284936</v>
+        <v>23.284935999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.025000</v>
+        <v>-227.02500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>83836.988671</v>
+        <v>83836.988670999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>23.288052</v>
       </c>
       <c r="BK18" s="1">
-        <v>1138.890000</v>
+        <v>1138.8900000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.374000</v>
+        <v>-362.37400000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>83847.890254</v>
+        <v>83847.890253999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.291081</v>
+        <v>23.291080999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.697000</v>
+        <v>-570.697</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>83858.815618</v>
+        <v>83858.815617999993</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.294115</v>
+        <v>23.294115000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1417.410000</v>
+        <v>1417.41</v>
       </c>
       <c r="BV18" s="1">
-        <v>-792.882000</v>
+        <v>-792.88199999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>83870.382322</v>
+        <v>83870.382322000005</v>
       </c>
       <c r="BY18" s="1">
         <v>23.297328</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1023.870000</v>
+        <v>-1023.87</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>83883.140418</v>
+        <v>83883.140417999995</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.300872</v>
+        <v>23.300871999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1982.730000</v>
+        <v>1982.73</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1564.940000</v>
+        <v>-1564.94</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>83709.815431</v>
+        <v>83709.815430999995</v>
       </c>
       <c r="B19" s="1">
         <v>23.252727</v>
       </c>
       <c r="C19" s="1">
-        <v>911.048000</v>
+        <v>911.048</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.500000</v>
+        <v>-196.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>83719.905049</v>
+        <v>83719.905048999994</v>
       </c>
       <c r="G19" s="1">
-        <v>23.255529</v>
+        <v>23.255528999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>927.811000</v>
+        <v>927.81100000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.687000</v>
+        <v>-166.68700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>83730.386508</v>
+        <v>83730.386507999996</v>
       </c>
       <c r="L19" s="1">
-        <v>23.258441</v>
+        <v>23.258441000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>950.337000</v>
+        <v>950.33699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.785000</v>
+        <v>-119.785</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>83740.677998</v>
+        <v>83740.677997999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.261299</v>
+        <v>23.261299000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>956.877000</v>
+        <v>956.87699999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.569000</v>
+        <v>-104.569</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>83751.614287</v>
+        <v>83751.614287000004</v>
       </c>
       <c r="V19" s="1">
-        <v>23.264337</v>
+        <v>23.264337000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>963.487000</v>
+        <v>963.48699999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.803900</v>
+        <v>-90.803899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>83761.828402</v>
+        <v>83761.828401999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.267175</v>
+        <v>23.267175000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>970.931000</v>
+        <v>970.93100000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.952400</v>
+        <v>-80.952399999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>83771.966630</v>
+        <v>83771.966629999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.269991</v>
+        <v>23.269991000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>976.070000</v>
+        <v>976.07</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.292200</v>
+        <v>-80.292199999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>83782.209015</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.272836</v>
+        <v>23.272836000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>984.041000</v>
+        <v>984.04100000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.788900</v>
+        <v>-87.788899999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>83792.366090</v>
+        <v>83792.366089999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.275657</v>
+        <v>23.275656999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>993.213000</v>
+        <v>993.21299999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.486000</v>
+        <v>-102.486</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>83803.531035</v>
+        <v>83803.531035000007</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.278759</v>
+        <v>23.278759000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1004.490000</v>
+        <v>1004.49</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>83815.176608</v>
+        <v>83815.176607999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.281994</v>
+        <v>23.281994000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.476000</v>
+        <v>-142.476</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>83826.187297</v>
+        <v>83826.187296999997</v>
       </c>
       <c r="BE19" s="1">
         <v>23.285052</v>
       </c>
       <c r="BF19" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.024000</v>
+        <v>-227.024</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>83837.426142</v>
+        <v>83837.426141999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.288174</v>
+        <v>23.288174000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1138.900000</v>
+        <v>1138.9000000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.398000</v>
+        <v>-362.39800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>83848.304896</v>
+        <v>83848.304896000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.291196</v>
+        <v>23.291195999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.699000</v>
+        <v>-570.69899999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>83859.253585</v>
+        <v>83859.253584999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.294237</v>
+        <v>23.294236999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1417.420000</v>
+        <v>1417.42</v>
       </c>
       <c r="BV19" s="1">
-        <v>-792.891000</v>
+        <v>-792.89099999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>83870.840626</v>
+        <v>83870.840626000005</v>
       </c>
       <c r="BY19" s="1">
         <v>23.297456</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1578.260000</v>
+        <v>1578.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1023.840000</v>
+        <v>-1023.84</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>83883.658738</v>
+        <v>83883.658737999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.301016</v>
+        <v>23.301016000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1982.040000</v>
+        <v>1982.04</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1565.670000</v>
+        <v>-1565.67</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>83710.160647</v>
+        <v>83710.160646999997</v>
       </c>
       <c r="B20" s="1">
-        <v>23.252822</v>
+        <v>23.252821999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>911.113000</v>
+        <v>911.11300000000006</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.540000</v>
+        <v>-196.54</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>83720.247785</v>
       </c>
       <c r="G20" s="1">
-        <v>23.255624</v>
+        <v>23.255624000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>927.843000</v>
+        <v>927.84299999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.752000</v>
+        <v>-166.75200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>83730.746108</v>
+        <v>83730.746108000007</v>
       </c>
       <c r="L20" s="1">
-        <v>23.258541</v>
+        <v>23.258541000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>950.209000</v>
+        <v>950.20899999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.874000</v>
+        <v>-119.874</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>83741.378349</v>
+        <v>83741.378349000006</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.261494</v>
+        <v>23.261493999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>956.839000</v>
+        <v>956.83900000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.594000</v>
+        <v>-104.59399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>83751.965951</v>
+        <v>83751.965951000006</v>
       </c>
       <c r="V20" s="1">
-        <v>23.264435</v>
+        <v>23.264434999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>963.641000</v>
+        <v>963.64099999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.845200</v>
+        <v>-90.845200000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>83762.177090</v>
+        <v>83762.177089999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.267271</v>
+        <v>23.267271000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>970.927000</v>
+        <v>970.92700000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.989800</v>
+        <v>-80.989800000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>83772.318789</v>
+        <v>83772.318788999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.270089</v>
+        <v>23.270088999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>976.042000</v>
+        <v>976.04200000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.314700</v>
+        <v>-80.314700000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>83782.559191</v>
+        <v>83782.559190999993</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.272933</v>
+        <v>23.272932999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>984.027000</v>
+        <v>984.02700000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.794300</v>
+        <v>-87.794300000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>83793.045114</v>
+        <v>83793.045113999993</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.275846</v>
+        <v>23.275846000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>993.205000</v>
+        <v>993.20500000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.488000</v>
+        <v>-102.488</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>83804.223450</v>
+        <v>83804.223450000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.278951</v>
+        <v>23.278950999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>83815.578363</v>
+        <v>83815.578362999993</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.282105</v>
+        <v>23.282105000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.465000</v>
+        <v>-142.465</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>83826.553874</v>
+        <v>83826.553874000005</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.285154</v>
+        <v>23.285153999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.022000</v>
+        <v>-227.02199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>83837.800622</v>
+        <v>83837.800621999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.288278</v>
+        <v>23.288277999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1138.900000</v>
+        <v>1138.9000000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.379000</v>
+        <v>-362.37900000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>83848.701200</v>
+        <v>83848.701199999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.291306</v>
+        <v>23.291305999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.714000</v>
+        <v>-570.71400000000006</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>83859.679649</v>
+        <v>83859.679648999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.294355</v>
+        <v>23.294354999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1417.370000</v>
+        <v>1417.37</v>
       </c>
       <c r="BV20" s="1">
-        <v>-792.872000</v>
+        <v>-792.87199999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>83871.289011</v>
+        <v>83871.289011000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.297580</v>
+        <v>23.29758</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1578.240000</v>
+        <v>1578.24</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1023.810000</v>
+        <v>-1023.81</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>83884.208342</v>
+        <v>83884.208341999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.301169</v>
+        <v>23.301169000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1565.710000</v>
+        <v>-1565.71</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>83710.498919</v>
+        <v>83710.498919000005</v>
       </c>
       <c r="B21" s="1">
-        <v>23.252916</v>
+        <v>23.252915999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>911.039000</v>
+        <v>911.03899999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.530000</v>
+        <v>-196.53</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>83720.932760</v>
+        <v>83720.932759999996</v>
       </c>
       <c r="G21" s="1">
-        <v>23.255815</v>
+        <v>23.255814999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>927.894000</v>
+        <v>927.89400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.493000</v>
+        <v>-166.49299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>83731.439514</v>
+        <v>83731.439513999998</v>
       </c>
       <c r="L21" s="1">
-        <v>23.258733</v>
+        <v>23.258732999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>950.191000</v>
+        <v>950.19100000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.858000</v>
+        <v>-119.858</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>83741.724061</v>
+        <v>83741.724061000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.261590</v>
+        <v>23.261590000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>956.855000</v>
+        <v>956.85500000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.561000</v>
+        <v>-104.56100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>83752.309184</v>
+        <v>83752.309183999998</v>
       </c>
       <c r="V21" s="1">
-        <v>23.264530</v>
+        <v>23.264530000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>963.619000</v>
+        <v>963.61900000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.733400</v>
+        <v>-90.733400000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>83762.522838</v>
+        <v>83762.522838000004</v>
       </c>
       <c r="AA21" s="1">
         <v>23.267367</v>
       </c>
       <c r="AB21" s="1">
-        <v>971.029000</v>
+        <v>971.029</v>
       </c>
       <c r="AC21" s="1">
-        <v>-81.033800</v>
+        <v>-81.033799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>83772.993844</v>
+        <v>83772.993843999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.270276</v>
+        <v>23.270275999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>976.045000</v>
+        <v>976.04499999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.364700</v>
+        <v>-80.364699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>83783.242183</v>
+        <v>83783.242182999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.273123</v>
+        <v>23.273122999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>984.034000</v>
+        <v>984.03399999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.802800</v>
+        <v>-87.802800000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>83793.471176</v>
+        <v>83793.471176000006</v>
       </c>
       <c r="AP21" s="1">
-        <v>23.275964</v>
+        <v>23.275963999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>993.193000</v>
+        <v>993.19299999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.477000</v>
+        <v>-102.477</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>83804.647569</v>
+        <v>83804.647568999993</v>
       </c>
       <c r="AU21" s="1">
         <v>23.279069</v>
       </c>
       <c r="AV21" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.851000</v>
+        <v>-123.851</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>83815.965738</v>
+        <v>83815.965737999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>23.282213</v>
+        <v>23.282212999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.490000</v>
+        <v>-142.49</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>83826.909470</v>
+        <v>83826.909469999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.285253</v>
+        <v>23.285253000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.015000</v>
+        <v>-227.01499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>83838.174605</v>
+        <v>83838.174604999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.288382</v>
+        <v>23.288381999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1138.930000</v>
+        <v>1138.93</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.379000</v>
+        <v>-362.37900000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>83849.128785</v>
+        <v>83849.128784999994</v>
       </c>
       <c r="BO21" s="1">
         <v>23.291425</v>
       </c>
       <c r="BP21" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.679000</v>
+        <v>-570.67899999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>83860.109680</v>
+        <v>83860.109679999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.294475</v>
+        <v>23.294474999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1417.340000</v>
+        <v>1417.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-792.847000</v>
+        <v>-792.84699999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>83871.710610</v>
+        <v>83871.710609999995</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.297697</v>
+        <v>23.297696999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1023.700000</v>
+        <v>-1023.7</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>83884.738529</v>
+        <v>83884.738528999995</v>
       </c>
       <c r="CD21" s="1">
         <v>23.301316</v>
       </c>
       <c r="CE21" s="1">
-        <v>1982.460000</v>
+        <v>1982.46</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1564.780000</v>
+        <v>-1564.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>83711.182901</v>
+        <v>83711.182900999993</v>
       </c>
       <c r="B22" s="1">
-        <v>23.253106</v>
+        <v>23.253105999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>911.072000</v>
+        <v>911.072</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.512000</v>
+        <v>-196.512</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>83721.279501</v>
+        <v>83721.279500999997</v>
       </c>
       <c r="G22" s="1">
-        <v>23.255911</v>
+        <v>23.255911000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>927.539000</v>
+        <v>927.53899999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.717000</v>
+        <v>-166.71700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>83731.788698</v>
+        <v>83731.788698000004</v>
       </c>
       <c r="L22" s="1">
-        <v>23.258830</v>
+        <v>23.25883</v>
       </c>
       <c r="M22" s="1">
-        <v>950.339000</v>
+        <v>950.33900000000006</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.797000</v>
+        <v>-119.797</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>83742.077708</v>
+        <v>83742.077707999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.261688</v>
+        <v>23.261687999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>956.880000</v>
+        <v>956.88</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.544000</v>
+        <v>-104.544</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>83752.969886</v>
+        <v>83752.969886000006</v>
       </c>
       <c r="V22" s="1">
-        <v>23.264714</v>
+        <v>23.264714000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>963.625000</v>
+        <v>963.625</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.746900</v>
+        <v>-90.746899999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>83763.210752</v>
+        <v>83763.210751999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.267559</v>
+        <v>23.267558999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>971.034000</v>
+        <v>971.03399999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.949200</v>
+        <v>-80.949200000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>83773.352947</v>
+        <v>83773.352947000007</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.270376</v>
+        <v>23.270375999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>976.066000</v>
+        <v>976.06600000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.323900</v>
+        <v>-80.323899999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>83783.602277</v>
+        <v>83783.602276999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.273223</v>
+        <v>23.273223000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>984.067000</v>
+        <v>984.06700000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.827700</v>
+        <v>-87.827699999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>83793.828297</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.276063</v>
+        <v>23.276063000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>993.209000</v>
+        <v>993.20899999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.486000</v>
+        <v>-102.486</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>83805.036432</v>
+        <v>83805.036431999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.279177</v>
+        <v>23.279177000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1004.490000</v>
+        <v>1004.49</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.818000</v>
+        <v>-123.818</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>83816.320874</v>
+        <v>83816.320873999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>23.282311</v>
       </c>
       <c r="BA22" s="1">
-        <v>1014.060000</v>
+        <v>1014.06</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.494000</v>
+        <v>-142.494</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>83827.333580</v>
+        <v>83827.333580000006</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.285370</v>
+        <v>23.28537</v>
       </c>
       <c r="BF22" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.031000</v>
+        <v>-227.03100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>83838.602686</v>
+        <v>83838.602685999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>23.288501</v>
       </c>
       <c r="BK22" s="1">
-        <v>1138.900000</v>
+        <v>1138.9000000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.367000</v>
+        <v>-362.36700000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>83849.520094</v>
+        <v>83849.520094000007</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.291533</v>
+        <v>23.291533000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1270.460000</v>
+        <v>1270.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.704000</v>
+        <v>-570.70399999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>83860.521359</v>
+        <v>83860.521359000006</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.294589</v>
+        <v>23.294588999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1417.350000</v>
+        <v>1417.35</v>
       </c>
       <c r="BV22" s="1">
-        <v>-792.839000</v>
+        <v>-792.83900000000006</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>83872.132208</v>
+        <v>83872.132207999995</v>
       </c>
       <c r="BY22" s="1">
         <v>23.297815</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1023.850000</v>
+        <v>-1023.85</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>83885.262799</v>
+        <v>83885.262799000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>23.301462</v>
+        <v>23.301462000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.160000</v>
+        <v>1982.16</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1563.920000</v>
+        <v>-1563.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>83711.523653</v>
+        <v>83711.523652999997</v>
       </c>
       <c r="B23" s="1">
-        <v>23.253201</v>
+        <v>23.253201000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>911.081000</v>
+        <v>911.08100000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.620000</v>
+        <v>-196.62</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>83721.627656</v>
+        <v>83721.627655999997</v>
       </c>
       <c r="G23" s="1">
-        <v>23.256008</v>
+        <v>23.256008000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>927.828000</v>
+        <v>927.82799999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.735000</v>
+        <v>-166.73500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>83732.444442</v>
+        <v>83732.444442000007</v>
       </c>
       <c r="L23" s="1">
-        <v>23.259012</v>
+        <v>23.259011999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>950.148000</v>
+        <v>950.14800000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.935000</v>
+        <v>-119.935</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>83742.740363</v>
+        <v>83742.740363000004</v>
       </c>
       <c r="Q23" s="1">
         <v>23.261872</v>
       </c>
       <c r="R23" s="1">
-        <v>956.914000</v>
+        <v>956.91399999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.552000</v>
+        <v>-104.55200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>83753.340365</v>
+        <v>83753.340364999996</v>
       </c>
       <c r="V23" s="1">
-        <v>23.264817</v>
+        <v>23.264817000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>963.524000</v>
+        <v>963.524</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.661600</v>
+        <v>-90.661600000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>83763.570352</v>
+        <v>83763.570351999995</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.267658</v>
+        <v>23.267658000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>971.029000</v>
+        <v>971.029</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.917400</v>
+        <v>-80.917400000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>83773.705106</v>
+        <v>83773.705105999994</v>
       </c>
       <c r="AF23" s="1">
         <v>23.270474</v>
       </c>
       <c r="AG23" s="1">
-        <v>976.063000</v>
+        <v>976.06299999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.367800</v>
+        <v>-80.367800000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>83783.953941</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.273321</v>
+        <v>23.273320999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>984.055000</v>
+        <v>984.05499999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.792700</v>
+        <v>-87.792699999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>83794.186409</v>
+        <v>83794.186409000002</v>
       </c>
       <c r="AP23" s="1">
         <v>23.276163</v>
       </c>
       <c r="AQ23" s="1">
-        <v>993.211000</v>
+        <v>993.21100000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.456000</v>
+        <v>-102.456</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>83805.472376</v>
+        <v>83805.472376000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.279298</v>
+        <v>23.279298000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.823000</v>
+        <v>-123.82299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>83816.750937</v>
+        <v>83816.750937000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.282431</v>
+        <v>23.282430999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.500000</v>
+        <v>-142.5</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>83827.632176</v>
+        <v>83827.632175999999</v>
       </c>
       <c r="BE23" s="1">
         <v>23.285453</v>
       </c>
       <c r="BF23" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.014000</v>
+        <v>-227.01400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>83838.946914</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.288596</v>
+        <v>23.288595999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1138.910000</v>
+        <v>1138.9100000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.403000</v>
+        <v>-362.40300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>83849.944681</v>
+        <v>83849.944680999994</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.291651</v>
+        <v>23.291651000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1270.460000</v>
+        <v>1270.46</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.696000</v>
+        <v>-570.69600000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>83860.945439</v>
+        <v>83860.945439000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.294707</v>
+        <v>23.294706999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1417.350000</v>
+        <v>1417.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-792.747000</v>
+        <v>-792.74699999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>83872.557776</v>
+        <v>83872.557776000001</v>
       </c>
       <c r="BY23" s="1">
         <v>23.297933</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1578.240000</v>
+        <v>1578.24</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1023.800000</v>
+        <v>-1023.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>83885.773678</v>
+        <v>83885.773677999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>23.301604</v>
+        <v>23.301604000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1980.370000</v>
+        <v>1980.37</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1564.590000</v>
+        <v>-1564.59</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>83711.866884</v>
+        <v>83711.866884000003</v>
       </c>
       <c r="B24" s="1">
-        <v>23.253296</v>
+        <v>23.253295999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>911.024000</v>
+        <v>911.024</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.580000</v>
+        <v>-196.58</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>83722.287366</v>
+        <v>83722.287366000004</v>
       </c>
       <c r="G24" s="1">
-        <v>23.256191</v>
+        <v>23.256191000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>927.827000</v>
+        <v>927.827</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.879000</v>
+        <v>-166.87899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>83732.826824</v>
+        <v>83732.826824000003</v>
       </c>
       <c r="L24" s="1">
-        <v>23.259119</v>
+        <v>23.259118999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>950.245000</v>
+        <v>950.245</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.775000</v>
+        <v>-119.77500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>83743.123308</v>
+        <v>83743.123307999995</v>
       </c>
       <c r="Q24" s="1">
         <v>23.261979</v>
       </c>
       <c r="R24" s="1">
-        <v>956.912000</v>
+        <v>956.91200000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.573000</v>
+        <v>-104.57299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>83753.683613</v>
+        <v>83753.683613000001</v>
       </c>
       <c r="V24" s="1">
-        <v>23.264912</v>
+        <v>23.264911999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>963.468000</v>
+        <v>963.46799999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.747400</v>
+        <v>-90.747399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>83763.920066</v>
+        <v>83763.920066000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.267756</v>
+        <v>23.267755999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>970.954000</v>
+        <v>970.95399999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-81.044800</v>
+        <v>-81.044799999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>83774.049826</v>
+        <v>83774.049826000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.270569</v>
+        <v>23.270568999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>976.056000</v>
+        <v>976.05600000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.284400</v>
+        <v>-80.284400000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>83784.306598</v>
+        <v>83784.306597999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>23.273418</v>
+        <v>23.273417999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>984.040000</v>
+        <v>984.04</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.769300</v>
+        <v>-87.769300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>83794.612471</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.276281</v>
+        <v>23.276281000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>993.215000</v>
+        <v>993.21500000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.490000</v>
+        <v>-102.49</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>83806.114697</v>
+        <v>83806.114696999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.279476</v>
+        <v>23.279475999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>83817.040105</v>
+        <v>83817.040104999993</v>
       </c>
       <c r="AZ24" s="1">
         <v>23.282511</v>
       </c>
       <c r="BA24" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.478000</v>
+        <v>-142.47800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>83827.990784</v>
+        <v>83827.990783999994</v>
       </c>
       <c r="BE24" s="1">
         <v>23.285553</v>
       </c>
       <c r="BF24" s="1">
-        <v>1059.230000</v>
+        <v>1059.23</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.023000</v>
+        <v>-227.023</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>83839.322349</v>
+        <v>83839.322348999995</v>
       </c>
       <c r="BJ24" s="1">
         <v>23.288701</v>
       </c>
       <c r="BK24" s="1">
-        <v>1138.890000</v>
+        <v>1138.8900000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.386000</v>
+        <v>-362.38600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>83850.344445</v>
+        <v>83850.344444999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.291762</v>
+        <v>23.291761999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.662000</v>
+        <v>-570.66200000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>83861.717246</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.294921</v>
+        <v>23.294920999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1417.280000</v>
+        <v>1417.28</v>
       </c>
       <c r="BV24" s="1">
-        <v>-792.777000</v>
+        <v>-792.77700000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>83872.985363</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.298051</v>
+        <v>23.298051000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1578.220000</v>
+        <v>1578.22</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1023.770000</v>
+        <v>-1023.77</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>83886.297486</v>
+        <v>83886.297485999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.301749</v>
+        <v>23.301749000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1981.270000</v>
+        <v>1981.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1563.740000</v>
+        <v>-1563.74</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>83712.523589</v>
+        <v>83712.523589000004</v>
       </c>
       <c r="B25" s="1">
-        <v>23.253479</v>
+        <v>23.253478999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>911.010000</v>
+        <v>911.01</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.507000</v>
+        <v>-196.50700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>83722.660358</v>
+        <v>83722.660357999994</v>
       </c>
       <c r="G25" s="1">
-        <v>23.256295</v>
+        <v>23.256295000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>927.667000</v>
+        <v>927.66700000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.609000</v>
+        <v>-166.60900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>83733.171544</v>
+        <v>83733.171543999997</v>
       </c>
       <c r="L25" s="1">
         <v>23.259214</v>
       </c>
       <c r="M25" s="1">
-        <v>950.080000</v>
+        <v>950.08</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.824000</v>
+        <v>-119.824</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>83743.462043</v>
+        <v>83743.462043000007</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.262073</v>
+        <v>23.262073000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>956.890000</v>
+        <v>956.89</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.553000</v>
+        <v>-104.553</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>83754.024350</v>
+        <v>83754.024350000007</v>
       </c>
       <c r="V25" s="1">
-        <v>23.265007</v>
+        <v>23.265007000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>963.578000</v>
+        <v>963.57799999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.752200</v>
+        <v>-90.752200000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>83764.271695</v>
+        <v>83764.271695000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.267853</v>
+        <v>23.267852999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>971.018000</v>
+        <v>971.01800000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.957200</v>
+        <v>-80.9572</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>83774.475394</v>
+        <v>83774.475393999994</v>
       </c>
       <c r="AF25" s="1">
         <v>23.270688</v>
       </c>
       <c r="AG25" s="1">
-        <v>976.047000</v>
+        <v>976.04700000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.324100</v>
+        <v>-80.324100000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>83784.749524</v>
+        <v>83784.749523999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.273542</v>
+        <v>23.273541999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>984.027000</v>
+        <v>984.02700000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.799100</v>
+        <v>-87.799099999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>83794.907590</v>
+        <v>83794.907590000003</v>
       </c>
       <c r="AP25" s="1">
         <v>23.276363</v>
       </c>
       <c r="AQ25" s="1">
-        <v>993.171000</v>
+        <v>993.17100000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.463000</v>
+        <v>-102.46299999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>83806.470824</v>
+        <v>83806.470824000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.279575</v>
+        <v>23.279575000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>83817.404633</v>
+        <v>83817.404632999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>23.282612</v>
       </c>
       <c r="BA25" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.484000</v>
+        <v>-142.48400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>83828.352826</v>
+        <v>83828.352826000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.285654</v>
+        <v>23.285654000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1059.270000</v>
+        <v>1059.27</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.018000</v>
+        <v>-227.018</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>83839.701291</v>
+        <v>83839.701291000005</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.288806</v>
+        <v>23.288806000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1138.870000</v>
+        <v>1138.8699999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.396000</v>
+        <v>-362.39600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>83851.156892</v>
+        <v>83851.156891999999</v>
       </c>
       <c r="BO25" s="1">
         <v>23.291988</v>
       </c>
       <c r="BP25" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.710000</v>
+        <v>-570.71</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>83862.231566</v>
+        <v>83862.231566000002</v>
       </c>
       <c r="BT25" s="1">
         <v>23.295064</v>
       </c>
       <c r="BU25" s="1">
-        <v>1417.250000</v>
+        <v>1417.25</v>
       </c>
       <c r="BV25" s="1">
-        <v>-792.760000</v>
+        <v>-792.76</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>83873.425281</v>
+        <v>83873.425281000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>23.298174</v>
+        <v>23.298173999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1578.210000</v>
+        <v>1578.21</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1023.790000</v>
+        <v>-1023.79</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>83886.855981</v>
+        <v>83886.855981000001</v>
       </c>
       <c r="CD25" s="1">
         <v>23.301904</v>
       </c>
       <c r="CE25" s="1">
-        <v>1982.240000</v>
+        <v>1982.24</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1563.830000</v>
+        <v>-1563.83</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>83712.908484</v>
       </c>
       <c r="B26" s="1">
-        <v>23.253586</v>
+        <v>23.253585999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>911.058000</v>
+        <v>911.05799999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.431000</v>
+        <v>-196.43100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>83723.004053</v>
+        <v>83723.004052999997</v>
       </c>
       <c r="G26" s="1">
-        <v>23.256390</v>
+        <v>23.25639</v>
       </c>
       <c r="H26" s="1">
-        <v>927.893000</v>
+        <v>927.89300000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.736000</v>
+        <v>-166.73599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>83733.524695</v>
       </c>
       <c r="L26" s="1">
-        <v>23.259312</v>
+        <v>23.259312000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>950.209000</v>
+        <v>950.20899999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.869000</v>
+        <v>-119.869</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>83743.820651</v>
+        <v>83743.820651000002</v>
       </c>
       <c r="Q26" s="1">
         <v>23.262172</v>
       </c>
       <c r="R26" s="1">
-        <v>956.901000</v>
+        <v>956.90099999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.534000</v>
+        <v>-104.53400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>83754.482652</v>
+        <v>83754.482652000006</v>
       </c>
       <c r="V26" s="1">
         <v>23.265134</v>
       </c>
       <c r="W26" s="1">
-        <v>963.526000</v>
+        <v>963.52599999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.713200</v>
+        <v>-90.713200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>83764.715119</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.267976</v>
+        <v>23.267976000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>971.065000</v>
+        <v>971.06500000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.935200</v>
+        <v>-80.935199999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>83774.741747</v>
+        <v>83774.741746999993</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.270762</v>
+        <v>23.270762000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>976.065000</v>
+        <v>976.06500000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.334400</v>
+        <v>-80.334400000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>83785.002484</v>
+        <v>83785.002483999997</v>
       </c>
       <c r="AK26" s="1">
         <v>23.273612</v>
       </c>
       <c r="AL26" s="1">
-        <v>984.042000</v>
+        <v>984.04200000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.793200</v>
+        <v>-87.793199999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>83795.270662</v>
+        <v>83795.270661999995</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.276464</v>
+        <v>23.276464000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>993.198000</v>
+        <v>993.19799999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.492000</v>
+        <v>-102.492</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>83806.835427</v>
+        <v>83806.835426999998</v>
       </c>
       <c r="AU26" s="1">
         <v>23.279677</v>
       </c>
       <c r="AV26" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.819000</v>
+        <v>-123.819</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>83817.758777</v>
+        <v>83817.758776999995</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.282711</v>
+        <v>23.282710999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.481000</v>
+        <v>-142.48099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>83829.078015</v>
+        <v>83829.078015000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.285855</v>
+        <v>23.285855000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1059.260000</v>
+        <v>1059.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.051000</v>
+        <v>-227.05099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>83840.458187</v>
+        <v>83840.458186999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>23.289016</v>
       </c>
       <c r="BK26" s="1">
-        <v>1138.900000</v>
+        <v>1138.9000000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.425000</v>
+        <v>-362.42500000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>83851.573845</v>
+        <v>83851.573845000006</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.292104</v>
+        <v>23.292103999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1270.460000</v>
+        <v>1270.46</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.705000</v>
+        <v>-570.70500000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>83862.663580</v>
+        <v>83862.663579999993</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.295184</v>
+        <v>23.295183999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1417.080000</v>
+        <v>1417.08</v>
       </c>
       <c r="BV26" s="1">
-        <v>-792.657000</v>
+        <v>-792.65700000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>83873.845886</v>
+        <v>83873.845885999996</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.298291</v>
+        <v>23.298290999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1578.180000</v>
+        <v>1578.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1023.840000</v>
+        <v>-1023.84</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>83887.715517</v>
+        <v>83887.715517000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.302143</v>
+        <v>23.302143000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1980.940000</v>
+        <v>1980.94</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1564.210000</v>
+        <v>-1564.21</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>